--- a/src/main/resources/61-microservice-recruit-master/pf-user_structure.xlsx
+++ b/src/main/resources/61-microservice-recruit-master/pf-user_structure.xlsx
@@ -277,7 +277,7 @@
     <t>java.util.List</t>
   </si>
   <si>
-    <t>lambda$getReceiveList$2(org.springframework.data.redis.core.HashOperations)</t>
+    <t>lambda$getReceiveList$2(org.springframework.data.redis.core.HashOperations,java.util.List,com.stalary.pf.user.data.dto.Recruit)</t>
   </si>
   <si>
     <t>lambda$getSendList$0(java.util.List,java.lang.String,java.lang.String)</t>
@@ -787,10 +787,10 @@
     <t>sendCount(java.lang.Long)</t>
   </si>
   <si>
-    <t>preHandle(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>afterCompletion(javax.servlet.http.HttpServletRequest)</t>
+    <t>preHandle(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Object)</t>
+  </si>
+  <si>
+    <t>afterCompletion(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Object,java.lang.Exception)</t>
   </si>
   <si>
     <t>isAnnotationPresent(java.lang.reflect.Method,java.lang.Class)</t>
